--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.2473</v>
+        <v>16.0416</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.904499999999997</v>
+        <v>5.801999999999995</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.24810000000003</v>
+        <v>18.24390000000003</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.7291</v>
+        <v>16.6393</v>
       </c>
     </row>
     <row r="15">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0804</v>
+        <v>6.402399999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.9961</v>
+        <v>9.072400000000002</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.34429999999999</v>
+        <v>15.9598</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.198200000000003</v>
+        <v>6.258200000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.56699999999998</v>
+        <v>16.66929999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.98860000000001</v>
+        <v>17.04130000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.536000000000005</v>
+        <v>8.561400000000004</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.7128</v>
+        <v>16.7676</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.45159999999999</v>
+        <v>16.5028</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.27540000000001</v>
+        <v>17.2009</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0704</v>
+        <v>16.98220000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.48320000000001</v>
+        <v>16.54720000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.399399999999996</v>
+        <v>5.296599999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.35120000000002</v>
+        <v>17.26050000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.22200000000002</v>
+        <v>18.19980000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.586299999999998</v>
+        <v>5.716900000000002</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.868600000000001</v>
+        <v>9.905499999999998</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.42709999999999</v>
+        <v>16.60859999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.365600000000001</v>
+        <v>5.404100000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.229</v>
+        <v>5.674700000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.4378</v>
+        <v>16.5792</v>
       </c>
     </row>
     <row r="84">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.187200000000002</v>
+        <v>6.006799999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8184</v>
+        <v>16.9058</v>
       </c>
     </row>
   </sheetData>
